--- a/leetcode/readme.xlsx
+++ b/leetcode/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,15 +60,45 @@
     <t>189. Rotate Array</t>
   </si>
   <si>
+    <t>将数组元素每个后移k个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把后k个保存，再添加前面n-k个到新数组里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>219. Contains Duplicate II</t>
+  </si>
+  <si>
     <t>array vector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将数组元素每个后移k个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先把后k个保存，再添加前面n-k个到新数组里</t>
+    <t>array unordered_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较相同元素距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用hashap保存出现过的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票最大利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于动态规划的思想，O(n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,16 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
@@ -484,19 +514,59 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>7.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>7.24</v>
       </c>
     </row>
   </sheetData>
